--- a/feb2024_ecoli.xlsx
+++ b/feb2024_ecoli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wageningenur4-my.sharepoint.com/personal/alanna_leale_wur_nl/Documents/2022_fall_exp_leale/data/ecoli_CFUs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="103" documentId="13_ncr:1_{555D573D-7BB3-4C42-98D1-F70C27F27C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46BE4D18-FDDE-5442-8DE0-B7BAEB75F910}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="13_ncr:1_{555D573D-7BB3-4C42-98D1-F70C27F27C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED292EE1-3B03-9D41-8924-3826FB630585}"/>
   <bookViews>
     <workbookView xWindow="31500" yWindow="-2420" windowWidth="28800" windowHeight="16100" activeTab="2" xr2:uid="{C94B71F2-35A9-3C45-B6AD-7E48CC4EE72A}"/>
   </bookViews>
@@ -169,19 +169,19 @@
     <t>column</t>
   </si>
   <si>
-    <t>E. coli added from glycerol, then broth to mik. Negative is nothing added to broth or milk.</t>
-  </si>
-  <si>
     <t xml:space="preserve">pH of milk after 72 hrs of fermentation at 28 C, unshaken. </t>
   </si>
   <si>
-    <t>raw colony count E. coly broth  into milk after 72hrs, 28 C, unshaken. 10^-4 dilution VRB media</t>
-  </si>
-  <si>
-    <t>raw colony count of glycerol stock into BHI broth after 72hrs, 37 C, shaken. 10^-6 dilution VRB media</t>
-  </si>
-  <si>
     <t>what it means</t>
+  </si>
+  <si>
+    <t>E. coli added from glycerol to BHI broth, then broth culutre to mik. Negative is nothing added to broth or milk.</t>
+  </si>
+  <si>
+    <t>raw colony count of E. coli culture taken from BHI into milk, fermented for 72hrs, 28 C, unshaken. "milk_4" refers to 10^-4 dilution on VRB media</t>
+  </si>
+  <si>
+    <t>raw colony count of glycerol stock into BHI broth after 72hrs, 37 C, shaken. "bhi_6" refers to 10^-6 dilution VRB media</t>
   </si>
 </sst>
 </file>
@@ -1240,13 +1240,13 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="86.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="117.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -1254,7 +1254,7 @@
         <v>42</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1262,7 +1262,7 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1270,7 +1270,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1278,7 +1278,7 @@
         <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1286,7 +1286,7 @@
         <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
